--- a/btebl/btebl.xlsx
+++ b/btebl/btebl.xlsx
@@ -3,18 +3,584 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="2_" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="npda" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="t1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="npd4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="2_" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF2200FF"/>
+        <rFont val="ing5"/>
+      </rPr>
+      <t>zava8.github.io</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="ing5"/>
+      </rPr>
+      <t xml:space="preserve"> -&gt; font(download install set) keyboard</t>
+    </r>
+  </si>
+  <si>
+    <t>maths8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0123 4567 89LJ BWEF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">binary
+</t>
+  </si>
+  <si>
+    <t>common</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8aiueohcg xN vkz=wqj</t>
+  </si>
+  <si>
+    <t>ing5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="33"/>
+        <color rgb="FFFF671F"/>
+        <rFont val="ing5"/>
+      </rPr>
+      <t>ADHT</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="33"/>
+        <color theme="1"/>
+        <rFont val="ing5"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="33"/>
+        <color rgb="FF06038D"/>
+        <rFont val="ing5"/>
+      </rPr>
+      <t>tdpbs</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="33"/>
+        <color theme="1"/>
+        <rFont val="ing5"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="33"/>
+        <color rgb="FF035427"/>
+        <rFont val="ing5"/>
+      </rPr>
+      <t>yrlmnf</t>
+    </r>
+  </si>
+  <si>
+    <t>hin5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="32"/>
+        <color rgb="FFFF671F"/>
+        <rFont val="hin5"/>
+      </rPr>
+      <t>ADHT</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="32"/>
+        <color theme="1"/>
+        <rFont val="hin5"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="32"/>
+        <color rgb="FF06038D"/>
+        <rFont val="hin5"/>
+      </rPr>
+      <t xml:space="preserve">tdpbs </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="32"/>
+        <color rgb="FF035427"/>
+        <rFont val="hin5"/>
+      </rPr>
+      <t>yrlmnf</t>
+    </r>
+  </si>
+  <si>
+    <t>bengali5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="29"/>
+        <color rgb="FFFF671F"/>
+        <rFont val="bangla5"/>
+      </rPr>
+      <t>ADHT</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="29"/>
+        <color theme="1"/>
+        <rFont val="bangla5"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="29"/>
+        <color rgb="FF06038D"/>
+        <rFont val="bangla5"/>
+      </rPr>
+      <t xml:space="preserve">tdpbs </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="29"/>
+        <color rgb="FF035427"/>
+        <rFont val="bangla5"/>
+      </rPr>
+      <t>yrlmnf</t>
+    </r>
+  </si>
+  <si>
+    <t>Telugu5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color rgb="FFFF671F"/>
+        <rFont val="telugu5"/>
+      </rPr>
+      <t>ADHT</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="telugu5"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color rgb="FF06038D"/>
+        <rFont val="telugu5"/>
+      </rPr>
+      <t xml:space="preserve">tdpbs </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color rgb="FF035427"/>
+        <rFont val="telugu5"/>
+      </rPr>
+      <t>yrlmnf</t>
+    </r>
+  </si>
+  <si>
+    <t>kannada5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="23"/>
+        <color rgb="FFFF671F"/>
+        <rFont val="kannada5"/>
+      </rPr>
+      <t xml:space="preserve">ADHT </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="23"/>
+        <color rgb="FF06038D"/>
+        <rFont val="kannada5"/>
+      </rPr>
+      <t xml:space="preserve">tdpbs </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="23"/>
+        <color rgb="FF035427"/>
+        <rFont val="kannada5"/>
+      </rPr>
+      <t>yrlmnf</t>
+    </r>
+  </si>
+  <si>
+    <t>malayalam5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FFFF671F"/>
+        <rFont val="mlyalm5"/>
+      </rPr>
+      <t xml:space="preserve">ADHT </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FF06038D"/>
+        <rFont val="mlyalm5"/>
+      </rPr>
+      <t xml:space="preserve">tdpbs </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FF035427"/>
+        <rFont val="mlyalm5"/>
+      </rPr>
+      <t>yrlmnf</t>
+    </r>
+  </si>
+  <si>
+    <t>Tamil5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="23"/>
+        <color rgb="FFFF671F"/>
+        <rFont val="tmil5"/>
+      </rPr>
+      <t xml:space="preserve">ADHT </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="23"/>
+        <color rgb="FF06038D"/>
+        <rFont val="tmil5"/>
+      </rPr>
+      <t xml:space="preserve">tdpbs </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="23"/>
+        <color rgb="FF035427"/>
+        <rFont val="tmil5"/>
+      </rPr>
+      <t>yrlmnf</t>
+    </r>
+  </si>
+  <si>
+    <t>sinhala5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="22"/>
+        <color rgb="FFFF671F"/>
+        <rFont val="sinhala5"/>
+      </rPr>
+      <t xml:space="preserve">ADHT </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="22"/>
+        <color rgb="FF06038D"/>
+        <rFont val="sinhala5"/>
+      </rPr>
+      <t xml:space="preserve">tdpbs </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="22"/>
+        <color rgb="FF035427"/>
+        <rFont val="sinhala5"/>
+      </rPr>
+      <t>yrlmnf</t>
+    </r>
+  </si>
+  <si>
+    <t>oriya5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="26"/>
+        <color rgb="FFFF671F"/>
+        <rFont val="odia5"/>
+      </rPr>
+      <t xml:space="preserve">ADHT </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="26"/>
+        <color rgb="FF06038D"/>
+        <rFont val="odia5"/>
+      </rPr>
+      <t xml:space="preserve">tdpbs </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="26"/>
+        <color rgb="FF046A38"/>
+        <rFont val="odia5"/>
+      </rPr>
+      <t>yrlmnf</t>
+    </r>
+  </si>
+  <si>
+    <t>pnzabi5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="28"/>
+        <color rgb="FFFF671F"/>
+        <rFont val="pnzabi5"/>
+      </rPr>
+      <t xml:space="preserve">ADHT </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="28"/>
+        <color rgb="FF06038D"/>
+        <rFont val="pnzabi5"/>
+      </rPr>
+      <t xml:space="preserve">tdpbs </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="28"/>
+        <color rgb="FF046A38"/>
+        <rFont val="pnzabi5"/>
+      </rPr>
+      <t>yrlmnf</t>
+    </r>
+  </si>
+  <si>
+    <t>guzraTi5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="28"/>
+        <color rgb="FFFF671F"/>
+        <rFont val="guz5"/>
+      </rPr>
+      <t xml:space="preserve">ADHT </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="28"/>
+        <color rgb="FF06038D"/>
+        <rFont val="guz5"/>
+      </rPr>
+      <t xml:space="preserve">tdpbs </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="28"/>
+        <color rgb="FF046A38"/>
+        <rFont val="guz5"/>
+      </rPr>
+      <t>yrlmnf</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">umeshchandra yaDAv </t>
+  </si>
+  <si>
+    <t>font</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>41=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="binaryvertical5"/>
+      </rPr>
+      <t>41</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>44=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="binaryvertical5"/>
+      </rPr>
+      <t>44</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>48=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="binaryvertical5"/>
+      </rPr>
+      <t>48</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>54=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="binaryvertical5"/>
+      </rPr>
+      <t>54</t>
+    </r>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>bangla5</t>
+  </si>
+  <si>
+    <t>Tmil5</t>
+  </si>
+  <si>
+    <t>sinhalese5</t>
+  </si>
+  <si>
+    <t>odia5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">please visit</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00008E"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>zava8.github.io</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-&gt; font keyboard (linux)</t>
+    </r>
+  </si>
   <si>
     <t xml:space="preserve">2x1 = 2</t>
   </si>
@@ -134,7 +700,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+  <fonts count="61">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
@@ -142,47 +708,403 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="16.000000"/>
+      <color theme="1"/>
+      <name val="ing5"/>
+    </font>
+    <font>
+      <sz val="15.000000"/>
+      <color theme="1"/>
+      <name val="ing5"/>
+    </font>
+    <font>
+      <sz val="27.000000"/>
+      <color theme="2" tint="0"/>
+      <name val="ing5"/>
+    </font>
+    <font>
+      <sz val="30.000000"/>
+      <color theme="0" tint="0"/>
+      <name val="ing5"/>
+    </font>
+    <font>
+      <sz val="26.000000"/>
+      <color theme="2" tint="0"/>
+      <name val="ing5"/>
+    </font>
+    <font>
       <sz val="36.000000"/>
-      <color theme="1"/>
+      <color rgb="FF06038D"/>
       <name val="binaryvertical5"/>
     </font>
     <font>
-      <sz val="32.000000"/>
+      <sz val="28.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="32.000000"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="22.000000"/>
+      <color theme="2" tint="0"/>
       <name val="ing5"/>
     </font>
     <font>
-      <sz val="18.000000"/>
-      <color theme="1"/>
-      <name val="hin5"/>
-    </font>
-    <font>
-      <sz val="18.000000"/>
-      <color theme="1"/>
+      <sz val="28.000000"/>
+      <color theme="0" tint="0"/>
       <name val="ing5"/>
     </font>
     <font>
-      <sz val="36.000000"/>
+      <sz val="35.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="33.000000"/>
+      <color theme="1"/>
+      <name val="ing5"/>
+    </font>
+    <font>
+      <sz val="36.000000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="32.000000"/>
+      <color theme="1"/>
+      <name val="hin5"/>
+    </font>
+    <font>
+      <sz val="23.000000"/>
+      <color theme="2" tint="0"/>
+      <name val="ing5"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="29.000000"/>
+      <color theme="1"/>
+      <name val="bangla5"/>
+    </font>
+    <font>
+      <sz val="20.000000"/>
+      <color theme="2" tint="0"/>
+      <name val="ing5"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24.000000"/>
+      <color theme="1"/>
+      <name val="telugu5"/>
+    </font>
+    <font>
+      <sz val="20.000000"/>
+      <color theme="0" tint="0"/>
+      <name val="ing5"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="23.000000"/>
+      <color theme="1"/>
+      <name val="kannada5"/>
+    </font>
+    <font>
+      <sz val="16.000000"/>
+      <color theme="0" tint="0"/>
+      <name val="ing5"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20.000000"/>
+      <color theme="1"/>
+      <name val="mlyalm5"/>
+    </font>
+    <font>
+      <sz val="24.000000"/>
+      <color theme="0" tint="0"/>
+      <name val="ing5"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="23.000000"/>
+      <color theme="1"/>
+      <name val="tmil5"/>
+    </font>
+    <font>
+      <sz val="22.000000"/>
+      <color theme="0" tint="0"/>
+      <name val="ing5"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22.000000"/>
+      <color theme="1"/>
+      <name val="sinhala5"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26.000000"/>
+      <color theme="1"/>
+      <name val="odia5"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28.000000"/>
+      <color theme="1"/>
+      <name val="pnzabi5"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28.000000"/>
+      <color theme="1"/>
+      <name val="guz5"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14.000000"/>
+      <color theme="1"/>
+      <name val="ing5"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24.000000"/>
+      <color rgb="FF1C1E21"/>
+      <name val="ing5"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14.000000"/>
+      <color theme="1"/>
+      <name val="hin5"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24.000000"/>
+      <color rgb="FF1C1E21"/>
+      <name val="hin5"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14.000000"/>
+      <color theme="1"/>
+      <name val="bangla5"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="23.000000"/>
+      <color rgb="FF1C1E21"/>
+      <name val="bangla5"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14.000000"/>
+      <color theme="1"/>
+      <name val="telugu5"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20.000000"/>
+      <color rgb="FF1C1E21"/>
+      <name val="telugu5"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20.000000"/>
+      <color rgb="FF1C1E21"/>
+      <name val="ing5"/>
+    </font>
+    <font>
+      <sz val="20.000000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="21.000000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20.000000"/>
+      <color theme="1"/>
+      <name val="hin5"/>
+    </font>
+    <font>
+      <sz val="18.000000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20.000000"/>
+      <color theme="1"/>
+      <name val="bangla5"/>
+    </font>
+    <font>
+      <sz val="20.000000"/>
+      <color theme="1"/>
+      <name val="telugu5"/>
+    </font>
+    <font>
+      <sz val="16.000000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20.000000"/>
+      <color theme="1"/>
+      <name val="kannada5"/>
+    </font>
+    <font>
+      <sz val="12.000000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20.000000"/>
+      <color theme="1"/>
+      <name val="mlyalm5"/>
+    </font>
+    <font>
+      <sz val="20.000000"/>
+      <color theme="1"/>
+      <name val="tmil5"/>
+    </font>
+    <font>
+      <sz val="14.000000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20.000000"/>
+      <color theme="1"/>
+      <name val="sinhala5"/>
+    </font>
+    <font>
+      <sz val="22.000000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20.000000"/>
+      <color theme="1"/>
+      <name val="odia5"/>
+    </font>
+    <font>
+      <sz val="20.000000"/>
+      <color theme="1"/>
+      <name val="pnzabi5"/>
+    </font>
+    <font>
+      <sz val="20.000000"/>
+      <color theme="1"/>
+      <name val="guz5"/>
+    </font>
+    <font>
+      <sz val="13.000000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="36.000000"/>
+      <color theme="1"/>
+      <name val="binaryvertical5"/>
+    </font>
+    <font>
+      <sz val="32.000000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="32.000000"/>
+      <color theme="1"/>
+      <name val="ing5"/>
+    </font>
+    <font>
+      <sz val="18.000000"/>
+      <color theme="1"/>
+      <name val="hin5"/>
+    </font>
+    <font>
+      <sz val="18.000000"/>
+      <color theme="1"/>
+      <name val="ing5"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="0"/>
+        <bgColor theme="0" tint="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0C6633"/>
+        <bgColor rgb="FF0C6633"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF671F"/>
+        <bgColor rgb="FFFF671F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF965205"/>
+        <bgColor rgb="FF965205"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF046A38"/>
+        <bgColor rgb="FF046A38"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0"/>
+        <bgColor theme="1" tint="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor theme="7" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="5"/>
+        <bgColor indexed="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor theme="3" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -205,44 +1127,229 @@
       </bottom>
       <diagonal style="none"/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="79">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf fontId="4" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="6" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="7" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="8" fillId="5" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf fontId="9" fillId="6" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="10" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="7" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf fontId="11" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="12" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="13" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="14" fillId="7" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf fontId="15" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="16" fillId="7" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf fontId="17" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="18" fillId="7" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf fontId="19" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="20" fillId="7" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf fontId="21" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="22" fillId="7" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf fontId="23" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="24" fillId="7" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf fontId="25" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="26" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="24" fillId="7" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="27" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="28" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="8" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="29" fillId="8" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="30" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="31" fillId="8" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="32" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="33" fillId="8" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="34" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="35" fillId="8" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="36" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="37" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="38" fillId="9" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="38" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="38" fillId="10" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="39" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="40" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="41" fillId="10" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="42" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="43" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="44" fillId="10" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="45" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="46" fillId="10" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="47" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="48" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="49" fillId="10" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="50" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="51" fillId="10" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="52" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="53" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="54" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="49" fillId="9" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="55" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="55" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="56" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="57" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="58" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="56" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="59" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="60" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="58" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="6" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="5" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="57" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="60" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="56" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="58" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="4" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="58" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="56" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="59" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -750,237 +1857,149 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="100" workbookViewId="0">
+    <sheetView showRowColHeaders="1" topLeftCell="A2" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" style="1" width="9.140625"/>
-    <col min="2" max="2" style="2" width="9.140625"/>
-    <col bestFit="1" min="3" max="3" style="3" width="24.28125"/>
-    <col bestFit="1" min="4" max="4" style="4" width="24.57421875"/>
-    <col bestFit="1" min="5" max="5" style="5" width="29.8515625"/>
-    <col bestFit="1" min="6" max="6" style="6" width="28.57421875"/>
+    <col bestFit="1" min="2" max="2" style="2" width="19.140625"/>
+    <col bestFit="1" min="3" max="3" style="1" width="59.76171875"/>
+    <col min="4" max="16384" style="1" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="49.5">
-      <c r="A1" s="1">
+    <row r="1" ht="14.25">
+      <c r="A1" s="1"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="24" customHeight="1">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" ht="30" customHeight="1">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7">
-        <f>A1</f>
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4" t="str">
-        <f>C1</f>
-        <v xml:space="preserve">2x1 = 2</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="6" t="str">
-        <f>E1</f>
-        <v xml:space="preserve">tu vnza tu</v>
-      </c>
-    </row>
-    <row r="2" ht="49.5">
-      <c r="A2" s="1">
+      <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7">
-        <f>A2</f>
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4" t="str">
-        <f>C2</f>
-        <v xml:space="preserve">2x2 = 4</v>
-      </c>
-      <c r="E2" s="5" t="s">
+    </row>
+    <row r="4" s="1" customFormat="1" ht="39" customHeight="1">
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="6" t="str">
-        <f>E2</f>
-        <v xml:space="preserve">tu tuza four</v>
-      </c>
-    </row>
-    <row r="3" ht="49.5">
-      <c r="A3" s="1">
-        <v>3</v>
-      </c>
-      <c r="B3" s="7">
-        <f>A3</f>
-        <v>3</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="7" t="str">
+        <f>C3</f>
+        <v xml:space="preserve">0123 4567 89LJ BWEF</v>
+      </c>
+    </row>
+    <row r="5" s="8" customFormat="1" ht="39" customHeight="1">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="str">
-        <f>C3</f>
-        <v xml:space="preserve">2x3 = 6</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="C5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="6" t="str">
-        <f>E3</f>
-        <v xml:space="preserve">tu Threeza six</v>
-      </c>
-    </row>
-    <row r="4" ht="49.5">
-      <c r="A4" s="1">
-        <v>4</v>
-      </c>
-      <c r="B4" s="7">
-        <f>A4</f>
-        <v>4</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" s="11" customFormat="1" ht="45" customHeight="1">
+      <c r="B6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4" t="str">
-        <f>C4</f>
-        <v xml:space="preserve">2x4 = 8</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="C6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="6" t="str">
-        <f>E4</f>
-        <v xml:space="preserve">tu fourza eight</v>
-      </c>
-    </row>
-    <row r="5" ht="49.5">
-      <c r="A5" s="1">
-        <v>5</v>
-      </c>
-      <c r="B5" s="7">
-        <f>A5</f>
-        <v>5</v>
-      </c>
-      <c r="C5" s="3" t="s">
+    </row>
+    <row r="7" s="14" customFormat="1" ht="29.25" customHeight="1">
+      <c r="B7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="4" t="str">
-        <f>C5</f>
-        <v xml:space="preserve">2x5 = L</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="C7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="6" t="str">
-        <f>E5</f>
-        <v xml:space="preserve">tu fiveza ten</v>
-      </c>
-    </row>
-    <row r="6" ht="49.5">
-      <c r="A6" s="1">
-        <v>6</v>
-      </c>
-      <c r="B6" s="7">
-        <f>A6</f>
-        <v>6</v>
-      </c>
-      <c r="C6" s="3" t="s">
+    </row>
+    <row r="8" ht="35.25" customHeight="1">
+      <c r="B8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="4" t="str">
-        <f>C6</f>
-        <v xml:space="preserve">2x6 = B</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="C8" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="6" t="str">
-        <f>E6</f>
-        <v xml:space="preserve">tu sixza bvelv</v>
-      </c>
-    </row>
-    <row r="7" ht="49.5">
-      <c r="A7" s="1">
-        <v>7</v>
-      </c>
-      <c r="B7" s="7">
-        <f>A7</f>
-        <v>7</v>
-      </c>
-      <c r="C7" s="3" t="s">
+    </row>
+    <row r="9" ht="29.25" customHeight="1">
+      <c r="B9" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="4" t="str">
-        <f>C7</f>
-        <v xml:space="preserve">2x7 = E</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="C9" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="6" t="str">
-        <f>E7</f>
-        <v xml:space="preserve">tu sevenza eksen</v>
-      </c>
-    </row>
-    <row r="8" ht="49.5">
-      <c r="A8" s="1">
-        <v>8</v>
-      </c>
-      <c r="B8" s="7">
-        <f>A8</f>
-        <v>8</v>
-      </c>
-      <c r="C8" s="3" t="s">
+    </row>
+    <row r="10" s="1" customFormat="1" ht="33.75" customHeight="1">
+      <c r="B10" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="4" t="str">
-        <f>C8</f>
-        <v xml:space="preserve">2x8 = 10</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="C10" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="6" t="str">
-        <f>E8</f>
-        <v xml:space="preserve">tu eightza vnti</v>
-      </c>
-    </row>
-    <row r="9" ht="48.75">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" ht="48.75">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" ht="48.75">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" ht="48.75">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" ht="48.75">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" ht="48.75">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" ht="48.75">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" ht="48.75">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
+    </row>
+    <row r="11" ht="27">
+      <c r="B11" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" ht="28.5" customHeight="1">
+      <c r="B12" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" ht="30.75" customHeight="1">
+      <c r="B13" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" ht="30.75" customHeight="1">
+      <c r="B14" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" ht="30.75" customHeight="1">
+      <c r="B15" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" ht="38.25">
+      <c r="B16" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5">
+      <c r="B17" s="32"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
@@ -997,196 +2016,807 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="9.140625"/>
-    <col min="2" max="2" style="10" width="9.140625"/>
-    <col bestFit="1" min="3" max="3" style="8" width="27.7109375"/>
-    <col bestFit="1" min="4" max="4" style="8" width="24.57421875"/>
-    <col bestFit="1" min="5" max="5" style="8" width="36.7109375"/>
-    <col bestFit="1" min="6" max="6" style="11" width="34.7109375"/>
-    <col min="7" max="16384" style="8" width="9.140625"/>
+    <col bestFit="1" min="1" max="1" style="33" width="16.8515625"/>
+    <col bestFit="1" min="2" max="2" style="33" width="48.8515625"/>
+    <col min="3" max="16384" style="33" width="9.140625"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="37.5">
+      <c r="A1" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" ht="33">
+      <c r="A2" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" ht="32.25">
+      <c r="A3" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" ht="28.5">
+      <c r="A4" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" ht="31.5">
+      <c r="A5" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" ht="31.5">
+      <c r="A6" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" ht="31.5">
+      <c r="A7" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" ht="31.5">
+      <c r="A8" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" ht="31.5">
+      <c r="A9" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" ht="31.5">
+      <c r="A10" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" ht="31.5">
+      <c r="A11" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" style="1" width="9.140625"/>
+    <col customWidth="1" min="2" max="2" style="1" width="12.57421875"/>
+    <col bestFit="1" customWidth="1" min="3" max="6" style="1" width="10.23046875"/>
+    <col min="7" max="16384" style="1" width="9.140625"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" ht="28.5">
+      <c r="A2" s="1"/>
+      <c r="B2" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" ht="21" customHeight="1">
+      <c r="A3" s="1"/>
+      <c r="B3" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" ht="20.25" customHeight="1">
+      <c r="A4" s="1"/>
+      <c r="B4" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" ht="27.75">
+      <c r="A5" s="1"/>
+      <c r="B5" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="49" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" ht="28.5">
+      <c r="A6" s="1"/>
+      <c r="B6" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="50" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" ht="28.5">
+      <c r="A7" s="1"/>
+      <c r="B7" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="52" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" ht="27">
+      <c r="A8" s="1"/>
+      <c r="B8" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="54" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" ht="26.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="55" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" ht="27">
+      <c r="A10" s="1"/>
+      <c r="B10" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="57" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" ht="28.5">
+      <c r="A11" s="1"/>
+      <c r="B11" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="59" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" ht="27">
+      <c r="A12" s="1"/>
+      <c r="B12" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="60" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" ht="27">
+      <c r="A13" s="1"/>
+      <c r="B13" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="61" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" ht="21">
+      <c r="A14" s="1"/>
+      <c r="B14" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C14:F14"/>
+  </mergeCells>
+  <printOptions headings="0" gridLines="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.35826771653543305" bottom="0.75196850393700776" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView topLeftCell="A15" zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" style="65" width="9.140625"/>
+    <col min="2" max="2" style="66" width="9.140625"/>
+    <col bestFit="1" min="3" max="3" style="67" width="24.28125"/>
+    <col bestFit="1" min="4" max="4" style="68" width="24.57421875"/>
+    <col bestFit="1" min="5" max="5" style="69" width="29.8515625"/>
+    <col bestFit="1" min="6" max="6" style="70" width="28.57421875"/>
   </cols>
   <sheetData>
     <row r="1" ht="49.5">
-      <c r="A1" s="12">
+      <c r="A1" s="65">
+        <v>1</v>
+      </c>
+      <c r="B1" s="71">
+        <f t="shared" ref="B1:B8" si="0">A1</f>
+        <v>1</v>
+      </c>
+      <c r="C1" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="68" t="str">
+        <f t="shared" ref="D1:D8" si="1">C1</f>
+        <v xml:space="preserve">2x1 = 2</v>
+      </c>
+      <c r="E1" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="70" t="str">
+        <f t="shared" ref="F1:F8" si="2">E1</f>
+        <v xml:space="preserve">tu vnza tu</v>
+      </c>
+    </row>
+    <row r="2" ht="49.5">
+      <c r="A2" s="65">
+        <v>2</v>
+      </c>
+      <c r="B2" s="71">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C2" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="68" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">2x2 = 4</v>
+      </c>
+      <c r="E2" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="70" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">tu tuza four</v>
+      </c>
+    </row>
+    <row r="3" ht="49.5">
+      <c r="A3" s="65">
+        <v>3</v>
+      </c>
+      <c r="B3" s="71">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C3" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="68" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">2x3 = 6</v>
+      </c>
+      <c r="E3" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="70" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">tu Threeza six</v>
+      </c>
+    </row>
+    <row r="4" ht="49.5">
+      <c r="A4" s="65">
+        <v>4</v>
+      </c>
+      <c r="B4" s="71">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C4" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="68" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">2x4 = 8</v>
+      </c>
+      <c r="E4" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="70" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">tu fourza eight</v>
+      </c>
+    </row>
+    <row r="5" ht="49.5">
+      <c r="A5" s="65">
+        <v>5</v>
+      </c>
+      <c r="B5" s="71">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C5" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="68" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">2x5 = L</v>
+      </c>
+      <c r="E5" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="70" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">tu fiveza ten</v>
+      </c>
+    </row>
+    <row r="6" ht="49.5">
+      <c r="A6" s="65">
+        <v>6</v>
+      </c>
+      <c r="B6" s="71">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C6" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="68" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">2x6 = B</v>
+      </c>
+      <c r="E6" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="70" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">tu sixza bvelv</v>
+      </c>
+    </row>
+    <row r="7" ht="49.5">
+      <c r="A7" s="65">
+        <v>7</v>
+      </c>
+      <c r="B7" s="71">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C7" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="68" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">2x7 = E</v>
+      </c>
+      <c r="E7" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="70" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">tu sevenza eksen</v>
+      </c>
+    </row>
+    <row r="8" ht="49.5">
+      <c r="A8" s="65">
+        <v>8</v>
+      </c>
+      <c r="B8" s="71">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C8" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="68" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">2x8 = 10</v>
+      </c>
+      <c r="E8" s="69" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="70" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">tu eightza vnti</v>
+      </c>
+    </row>
+    <row r="9" ht="48.75">
+      <c r="A9" s="65"/>
+      <c r="B9" s="66"/>
+    </row>
+    <row r="10" ht="48.75">
+      <c r="A10" s="65"/>
+      <c r="B10" s="66"/>
+    </row>
+    <row r="11" ht="48.75">
+      <c r="A11" s="65"/>
+      <c r="B11" s="66"/>
+    </row>
+    <row r="12" ht="48.75">
+      <c r="A12" s="65"/>
+      <c r="B12" s="66"/>
+    </row>
+    <row r="13" ht="48.75">
+      <c r="A13" s="65"/>
+      <c r="B13" s="66"/>
+    </row>
+    <row r="14" ht="48.75">
+      <c r="A14" s="65"/>
+      <c r="B14" s="66"/>
+    </row>
+    <row r="15" ht="48.75">
+      <c r="A15" s="65"/>
+      <c r="B15" s="66"/>
+    </row>
+    <row r="16" ht="48.75">
+      <c r="A16" s="65"/>
+      <c r="B16" s="66"/>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" style="14" width="9.140625"/>
+    <col min="2" max="2" style="72" width="9.140625"/>
+    <col bestFit="1" min="3" max="3" style="1" width="27.7109375"/>
+    <col bestFit="1" min="4" max="4" style="1" width="24.57421875"/>
+    <col bestFit="1" min="5" max="5" style="1" width="36.7109375"/>
+    <col bestFit="1" min="6" max="6" style="73" width="34.7109375"/>
+    <col min="7" max="16384" style="1" width="9.140625"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="49.5">
+      <c r="A1" s="74">
         <v>9</v>
       </c>
-      <c r="B1" s="13">
-        <f>A1</f>
+      <c r="B1" s="75">
+        <f t="shared" ref="B1:B8" si="3">A1</f>
         <v>9</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="15" t="str">
-        <f>C1</f>
+      <c r="C1" s="76" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="77" t="str">
+        <f t="shared" ref="D1:D8" si="4">C1</f>
         <v xml:space="preserve">2x9 = 12</v>
       </c>
-      <c r="E1" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="11" t="str">
-        <f>E1</f>
+      <c r="E1" s="78" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="73" t="str">
+        <f t="shared" ref="F1:F8" si="5">E1</f>
         <v xml:space="preserve">tu nineza vnti tu</v>
       </c>
     </row>
     <row r="2" ht="49.5">
-      <c r="A2" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="13" t="str">
-        <f>A2</f>
+      <c r="A2" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="75" t="str">
+        <f t="shared" si="3"/>
         <v>L</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="15" t="str">
-        <f>C2</f>
+      <c r="C2" s="76" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="77" t="str">
+        <f t="shared" si="4"/>
         <v xml:space="preserve">2xL = 14</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="11" t="str">
-        <f>E2</f>
+      <c r="E2" s="78" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="73" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve">tu tenza vnti four</v>
       </c>
     </row>
     <row r="3" ht="49.5">
-      <c r="A3" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="13" t="str">
-        <f>A3</f>
+      <c r="A3" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="75" t="str">
+        <f t="shared" si="3"/>
         <v>J</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="15" t="str">
-        <f>C3</f>
+      <c r="C3" s="76" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="77" t="str">
+        <f t="shared" si="4"/>
         <v xml:space="preserve">2xJ = 16</v>
       </c>
-      <c r="E3" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="11" t="str">
-        <f>E3</f>
+      <c r="E3" s="78" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="73" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve">tu zilevenza vnti six</v>
       </c>
     </row>
     <row r="4" ht="49.5">
-      <c r="A4" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="13" t="str">
-        <f>A4</f>
+      <c r="A4" s="74" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="75" t="str">
+        <f t="shared" si="3"/>
         <v>B</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="15" t="str">
-        <f>C4</f>
+      <c r="C4" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="77" t="str">
+        <f t="shared" si="4"/>
         <v xml:space="preserve">2xB = 18</v>
       </c>
-      <c r="E4" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="11" t="str">
-        <f>E4</f>
+      <c r="E4" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="73" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve">tu bvelvza vnti eight</v>
       </c>
     </row>
     <row r="5" ht="49.5">
-      <c r="A5" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="13" t="str">
-        <f>A5</f>
+      <c r="A5" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="75" t="str">
+        <f t="shared" si="3"/>
         <v>W</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="15" t="str">
-        <f>C5</f>
+      <c r="C5" s="76" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="77" t="str">
+        <f t="shared" si="4"/>
         <v xml:space="preserve">2xW = 1L</v>
       </c>
-      <c r="E5" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="11" t="str">
-        <f>E5</f>
+      <c r="E5" s="78" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="73" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve">tu dblunza vnti ten</v>
       </c>
     </row>
     <row r="6" ht="49.5">
-      <c r="A6" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="13" t="str">
-        <f>A6</f>
+      <c r="A6" s="74" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="75" t="str">
+        <f t="shared" si="3"/>
         <v>E</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="15" t="str">
-        <f>C6</f>
+      <c r="C6" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="77" t="str">
+        <f t="shared" si="4"/>
         <v xml:space="preserve">2xE = 1B</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="11" t="str">
-        <f>E6</f>
+      <c r="E6" s="78" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="73" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve">tu eksenza vnti bvelv</v>
       </c>
     </row>
     <row r="7" ht="49.5">
-      <c r="A7" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="13" t="str">
-        <f>A7</f>
+      <c r="A7" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="75" t="str">
+        <f t="shared" si="3"/>
         <v>F</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="15" t="str">
-        <f>C7</f>
+      <c r="C7" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="77" t="str">
+        <f t="shared" si="4"/>
         <v xml:space="preserve">2xF = 1E</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="11" t="str">
-        <f>E7</f>
+      <c r="E7" s="78" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="73" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve">tu phenza vnti eksen</v>
       </c>
     </row>
     <row r="8" ht="49.5">
-      <c r="A8" s="12">
+      <c r="A8" s="74">
         <v>10</v>
       </c>
-      <c r="B8" s="13">
-        <f>A8</f>
+      <c r="B8" s="75">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="15" t="str">
-        <f>C8</f>
+      <c r="C8" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="77" t="str">
+        <f t="shared" si="4"/>
         <v xml:space="preserve">2x10 = 20</v>
       </c>
-      <c r="E8" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="11" t="str">
-        <f>E8</f>
+      <c r="E8" s="78" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="73" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve">tu vntiza tuti</v>
       </c>
     </row>
